--- a/Cenarios_Stress_Test_BV.xlsx
+++ b/Cenarios_Stress_Test_BV.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cenários" sheetId="1" r:id="rId1"/>
     <sheet name="Massa" sheetId="4" r:id="rId2"/>
+    <sheet name="Roteiro_Job_Process" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Cenários</t>
   </si>
@@ -57,13 +58,133 @@
   </si>
   <si>
     <t>CardExpirationDate</t>
+  </si>
+  <si>
+    <t>Gerar Token</t>
+  </si>
+  <si>
+    <t>Consultar Saldo</t>
+  </si>
+  <si>
+    <t>Consultar Informações do Cartão</t>
+  </si>
+  <si>
+    <t>Realizar execução de Resgate</t>
+  </si>
+  <si>
+    <t>Confirmar a realização do Resgate</t>
+  </si>
+  <si>
+    <t>Realizar o cancelamento de Resgate</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Jmeter Cenários</t>
+  </si>
+  <si>
+    <t>Pagina Inicial</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Autenticar Login</t>
+  </si>
+  <si>
+    <t>Valida Cartão Resgate</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>GetInfo</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Authorize</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Acessar o Marketplace após validação do Cartão</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Pegar as Colections com o Dev</t>
+  </si>
+  <si>
+    <t>Solicitar Explicação sobre a Demanda</t>
+  </si>
+  <si>
+    <t>Fechar os cenários para Execução</t>
+  </si>
+  <si>
+    <t>Reproduzir a execução destes cenários no Postman</t>
+  </si>
+  <si>
+    <t>Arquitetar os testes no Jmeter</t>
+  </si>
+  <si>
+    <t>Validar os testes do jmeter</t>
+  </si>
+  <si>
+    <t>Fazer Match dos testes feitos no Jmeter com os cenários de negócio</t>
+  </si>
+  <si>
+    <t>Solicitar ao Dev as urls de prod para o teste de stress em prod</t>
+  </si>
+  <si>
+    <t>Atualizar as urls no jmeter</t>
+  </si>
+  <si>
+    <t>Executar para validar se há instabilidade</t>
+  </si>
+  <si>
+    <t>Criar plano de execução no blzemeter</t>
+  </si>
+  <si>
+    <t>Configurar o case real do stress test (usuários, rumpup etc)</t>
+  </si>
+  <si>
+    <t>Executar o plano</t>
+  </si>
+  <si>
+    <t>Extrair os indicadores</t>
+  </si>
+  <si>
+    <t>Correlacionar informações</t>
+  </si>
+  <si>
+    <t>Reportar ao envolvidos</t>
+  </si>
+  <si>
+    <t>Finalizar a demanda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,16 +192,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -88,12 +249,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,58 +588,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -454,73 +796,229 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>123456789</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>4130</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>19791023</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>202204</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="62.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>